--- a/User Studies Data/Study-2a Data/Compiled Results.xlsx
+++ b/User Studies Data/Study-2a Data/Compiled Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Conversational Analysis\conversational-analysis new\conversational-recommenders-analysis-2020\User studies\IJHCS paper Material\Online Material\User Studies Data\Study-2a Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHBR\rbCRS-chbr\User Studies Data\Study-2a Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Circle</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>KBRD</t>
-  </si>
-  <si>
-    <t>Engineered</t>
   </si>
   <si>
     <t>sum</t>
@@ -508,7 +505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Engineered</c:v>
+                  <c:v>rbCRS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4153,7 +4150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4171,12 +4168,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5">
         <v>34</v>
@@ -4190,7 +4187,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <v>21</v>
@@ -4219,7 +4216,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -4234,7 +4231,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -4296,7 +4293,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>3.67</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>2.2000000000000001E-3</v>
@@ -4319,7 +4316,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>1.7492999999999999E-7</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>6.7078000000000003E-16</v>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>0.02</v>
@@ -4358,7 +4355,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>3.01017E-5</v>
@@ -4536,7 +4533,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -4551,7 +4548,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>42</v>
@@ -4566,7 +4563,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -4581,7 +4578,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -4596,7 +4593,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -4620,8 +4617,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4633,7 +4630,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -4657,7 +4654,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -4874,7 +4871,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -4941,7 +4938,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -4959,7 +4956,7 @@
         <v>22</v>
       </c>
       <c r="L22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -4973,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23">
         <v>5</v>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <f>SUBTOTAL(9,C24:C28)</f>
@@ -5149,10 +5146,10 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -5182,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="L33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -5303,7 +5300,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <f>SUBTOTAL(9,C33:C37)</f>
@@ -5358,7 +5355,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5363,7 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/User Studies Data/Study-2a Data/Compiled Results.xlsx
+++ b/User Studies Data/Study-2a Data/Compiled Results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Circle</t>
   </si>
@@ -174,12 +174,34 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRS</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +219,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,25 +355,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="0"/>
-            <c:val val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Plots!$I$4:$I$8</c:f>
@@ -423,25 +433,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="0"/>
-            <c:val val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Plots!$I$4:$I$8</c:f>
@@ -505,7 +496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>rbCRS</c:v>
+                  <c:v>RBCRS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -520,25 +511,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="0"/>
-            <c:val val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Plots!$I$4:$I$8</c:f>
@@ -4618,7 +4590,7 @@
   <dimension ref="A2:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4654,7 +4626,7 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -5376,6 +5348,7 @@
     <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>